--- a/documentacao/planilha-UAT/Plano de UAT - Homol v1.xlsx
+++ b/documentacao/planilha-UAT/Plano de UAT - Homol v1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18930" windowHeight="7770" tabRatio="503"/>
+    <workbookView windowWidth="20490" windowHeight="7770" tabRatio="503"/>
   </bookViews>
   <sheets>
     <sheet name="Cenário - Pesquisar Cliente" sheetId="6" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="80">
   <si>
     <t xml:space="preserve">Projeto: </t>
   </si>
@@ -100,97 +100,136 @@
     <t>Id1</t>
   </si>
   <si>
-    <t>Testar cadastro</t>
-  </si>
-  <si>
-    <t>No cadastro tem que ter</t>
-  </si>
-  <si>
-    <t>Código do Cliente: AAAAA</t>
-  </si>
-  <si>
-    <t>Mensagem de Erro que o código é inválido.</t>
+    <t>Testar cadastro/formulario</t>
+  </si>
+  <si>
+    <t>No cadastro tem que ter nome e sobrenome, tem que ser um e-mail com @, o cpf é obrigatorio.</t>
+  </si>
+  <si>
+    <t>Teste de formulario do cadastro: Se o cliente não preencher algum campo ou não preencher o e-mail com @ o formulario emitirá um erro</t>
+  </si>
+  <si>
+    <t>Mensagem de erro de e-mail inválido / Cadastro concluido com sucesso</t>
+  </si>
+  <si>
+    <t>NOK</t>
+  </si>
+  <si>
+    <t>BUG. Não apareceu a mensagem. O sistema deixou consultar.</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>\\logserver\Demanda\A-416\LogId1.LOG</t>
+  </si>
+  <si>
+    <t>Id2</t>
+  </si>
+  <si>
+    <t>Testar cadastro/senha</t>
+  </si>
+  <si>
+    <t>Na senha tem que ter no minimo 6 caracteres.</t>
+  </si>
+  <si>
+    <t>Teste de senha: abaixo de 6 caracteres mensagem de erro      Teste de senha:igual ou acima de 6 caracteres o cadastro vai ser feito com sucesso.</t>
+  </si>
+  <si>
+    <t>Mensagem de erro de senha inválida / Cadastro concluido com sucesso</t>
+  </si>
+  <si>
+    <t>Id3</t>
+  </si>
+  <si>
+    <t>Testar login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login sem um email com @ vai dar erro.                         Senha ter no minimo 6 caracteres </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Código do Cliente: </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF800080"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>resenha@bandtec.com.br                 Senha: +6 caractecteres.</t>
+    </r>
+  </si>
+  <si>
+    <t>O sistema deve apresentar se o email esta cadastrado com sucesso, e se a senha tem os 6 caracteres minino que deve ter.</t>
+  </si>
+  <si>
+    <t>Id4</t>
+  </si>
+  <si>
+    <t>Testar pagina inicial da  aplicação de agendamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logar no sistema, clicar na opção de centro esportivo e verificar as quadras disponiveis </t>
+  </si>
+  <si>
+    <t>Teste de selecionar o centro esportivo e verificar se aparece todas as quadras esportivas.</t>
+  </si>
+  <si>
+    <t>Deve aparecer todos os centros esportivos cadastrados e as quadras disponiveis</t>
+  </si>
+  <si>
+    <t>\\logserver\Demanda\A-416\LogId3.LOG</t>
+  </si>
+  <si>
+    <t>Id5</t>
+  </si>
+  <si>
+    <t>Testar pagina da aplicação Agendar horario</t>
+  </si>
+  <si>
+    <t>Selecionar um centro esportivo, selecionar um tipo de quadra esportiva</t>
+  </si>
+  <si>
+    <t>Teste de massa: aparecer centros esportivos, todos os tipos de quadras e horarios disponiveis</t>
+  </si>
+  <si>
+    <t>O sistema deve apresentar os centros disponiveis cadastrados, e os tipos de  quadras com os horarios disponiveis</t>
+  </si>
+  <si>
+    <t>Não Ok. O componente utilizado não permite a limitação, mas o sistema está com aviso correto e não deixa salvar.</t>
+  </si>
+  <si>
+    <t>DEFEITO.Ok com ressalvas.</t>
+  </si>
+  <si>
+    <t>\\logserver\Demanda\A-416\LogId4.LOG</t>
+  </si>
+  <si>
+    <t>Id6</t>
+  </si>
+  <si>
+    <t>Pesquisar Cliente</t>
+  </si>
+  <si>
+    <t>Logar no sistema, clicar na opção de busca do cliente no menu principal, digitar o NOME do cliente.</t>
+  </si>
+  <si>
+    <t>Nome do Cliente: M</t>
+  </si>
+  <si>
+    <t>O sistema não deve permitir a busca e deve avisar o cliente da necessidade do preenchimento de pelos 5 caracteres (letras).</t>
   </si>
   <si>
     <t>OK</t>
   </si>
   <si>
-    <t>BUG. Não apareceu a mensagem. O sistema deixou consultar.</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>\\logserver\Demanda\A-416\LogId1.LOG</t>
-  </si>
-  <si>
-    <t>Id2</t>
-  </si>
-  <si>
-    <t>Testar login</t>
-  </si>
-  <si>
-    <t>Logar no sistema, clicar na opção de busca do cliente no menu principal, digitar o CÓDIGO do cliente.</t>
-  </si>
-  <si>
-    <t>Código do Cliente: 123</t>
-  </si>
-  <si>
-    <t>O sistema deve preencher o código com zeros a esquerda: "00123" e apresentar os dados do cliente: "SENHOR DAS ESTRELAS"</t>
-  </si>
-  <si>
-    <t>\\logserver\Demanda\A-416\LogId2.LOG</t>
-  </si>
-  <si>
-    <t>Id3</t>
-  </si>
-  <si>
-    <t>Pesquisar Cliente</t>
-  </si>
-  <si>
-    <t>Código do Cliente:</t>
-  </si>
-  <si>
-    <t>Ao deixar em branco o campo e preencher, o sistema deverá fornecer um aviso que o código está em branco e não deve permitir a busca.</t>
-  </si>
-  <si>
-    <t>\\logserver\Demanda\A-416\LogId3.LOG</t>
-  </si>
-  <si>
-    <t>Id4</t>
-  </si>
-  <si>
-    <t>Logar no sistema, clicar na opção de busca do cliente no menu principal, digitar o NOME do cliente.</t>
-  </si>
-  <si>
-    <t>Nome do cliente: MARCO ANTONIO DE OLIVEIRA MARCONDES SANTANA DE SILVA BUENO E SOUTO.</t>
-  </si>
-  <si>
-    <t>O sistema deve limitar o preenchimento em 25 caracteres e mostrar uma mensagem que ensine o usuário a abreviar.</t>
-  </si>
-  <si>
-    <t>Não Ok. O componente utilizado não permite a limitação, mas o sistema está com aviso correto e não deixa salvar.</t>
-  </si>
-  <si>
-    <t>DEFEITO.Ok com ressalvas.</t>
-  </si>
-  <si>
-    <t>\\logserver\Demanda\A-416\LogId4.LOG</t>
-  </si>
-  <si>
-    <t>Id5</t>
-  </si>
-  <si>
-    <t>Nome do Cliente: M</t>
-  </si>
-  <si>
-    <t>O sistema não deve permitir a busca e deve avisar o cliente da necessidade do preenchimento de pelos 5 caracteres (letras).</t>
-  </si>
-  <si>
     <t>\\logserver\Demanda\A-416\LogId5.LOG</t>
   </si>
   <si>
-    <t>Id6</t>
+    <t>Id7</t>
   </si>
   <si>
     <t>Nome do Cliente: SENHOR DO ESPAÇO</t>
@@ -205,7 +244,7 @@
     <t>\\logserver\Demanda\A-416\LogId6.LOG</t>
   </si>
   <si>
-    <t>Id7</t>
+    <t>Id8</t>
   </si>
   <si>
     <t>Nome do Cliente: SENHOR DAS ESTRELAS</t>
@@ -234,13 +273,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="[$$-409]#,##0.00;[Red]\-[$$-409]#,##0.00"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="[$$-409]#,##0.00;[Red]\-[$$-409]#,##0.00"/>
+    <numFmt numFmtId="180" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="34">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -296,6 +335,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Verdana"/>
@@ -309,6 +355,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="10"/>
       <color indexed="12"/>
@@ -320,6 +373,21 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -331,21 +399,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -354,6 +407,88 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -364,98 +499,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color indexed="22"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="39">
@@ -497,139 +557,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="38"/>
         <bgColor indexed="30"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -647,43 +725,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -722,6 +782,17 @@
     </border>
     <border>
       <left/>
+      <right style="medium">
+        <color indexed="23"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top/>
       <bottom style="medium">
@@ -730,17 +801,61 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -761,31 +876,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -796,46 +896,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="23"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="23"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -858,188 +918,188 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyProtection="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyProtection="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" applyProtection="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" applyProtection="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="13">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyProtection="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyProtection="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" applyProtection="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" applyProtection="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="13">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" applyProtection="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1092,6 +1152,10 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="60" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -1111,7 +1175,7 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1126,11 +1190,15 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="60" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="60" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1141,16 +1209,16 @@
   </cellXfs>
   <cellStyles count="61">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Column Header" xfId="2"/>
-    <cellStyle name="Card TR" xfId="3"/>
-    <cellStyle name="Card TL" xfId="4"/>
-    <cellStyle name="Card T" xfId="5"/>
-    <cellStyle name="Card R" xfId="6"/>
-    <cellStyle name="Card BR" xfId="7"/>
-    <cellStyle name="Card B" xfId="8"/>
-    <cellStyle name="Card" xfId="9"/>
-    <cellStyle name="Background" xfId="10"/>
+    <cellStyle name="Background" xfId="1"/>
+    <cellStyle name="Card" xfId="2"/>
+    <cellStyle name="Card B" xfId="3"/>
+    <cellStyle name="Card BR" xfId="4"/>
+    <cellStyle name="Card R" xfId="5"/>
+    <cellStyle name="Card T" xfId="6"/>
+    <cellStyle name="Card TL" xfId="7"/>
+    <cellStyle name="Card TR" xfId="8"/>
+    <cellStyle name="Column Header" xfId="9"/>
+    <cellStyle name="Normal 2" xfId="10"/>
     <cellStyle name="60% - Accent6" xfId="11" builtinId="52"/>
     <cellStyle name="40% - Accent6" xfId="12" builtinId="51"/>
     <cellStyle name="60% - Accent5" xfId="13" builtinId="48"/>
@@ -1285,13 +1353,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1554704</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>909119</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1316,7 +1384,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="11677650" y="10067290"/>
+          <a:off x="11677650" y="11426190"/>
           <a:ext cx="1002030" cy="804545"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1339,54 +1407,41 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>129294</xdr:rowOff>
+      <xdr:colOff>86995</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>165735</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1495425</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>947219</xdr:rowOff>
+      <xdr:colOff>2100580</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1285240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Imagem 5" descr="Resultado de imagem para tela de cadastro"/>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="11601450" y="4434205"/>
-          <a:ext cx="1019175" cy="817880"/>
+        <a:xfrm>
+          <a:off x="11212195" y="6490335"/>
+          <a:ext cx="2013585" cy="1119505"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1681,10 +1736,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T32"/>
+  <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A22" sqref="$A22:$XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7142857142857" defaultRowHeight="14.25"/>
@@ -1780,10 +1835,10 @@
       <c r="G16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="22" t="s">
+      <c r="I16" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="22"/>
+      <c r="J16" s="23"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="30" spans="1:20">
       <c r="A17" s="12" t="s">
@@ -1798,28 +1853,28 @@
       <c r="D17" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="18" t="s">
+      <c r="H17" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="I17" s="18" t="s">
+      <c r="I17" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="J17" s="18" t="s">
+      <c r="J17" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="26"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="28"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="75" spans="1:20">
       <c r="A18" s="13" t="s">
@@ -1837,25 +1892,25 @@
       <c r="E18" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="20" t="s">
+      <c r="F18" s="20"/>
+      <c r="G18" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="20" t="s">
+      <c r="H18" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="I18" s="23" t="s">
+      <c r="I18" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="J18" s="24" t="s">
+      <c r="J18" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="26"/>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="90" spans="1:20">
+      <c r="Q18" s="28"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="28"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="75" customHeight="1" spans="1:20">
       <c r="A19" s="13" t="s">
         <v>36</v>
       </c>
@@ -1871,64 +1926,58 @@
       <c r="E19" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="19"/>
-      <c r="G19" s="20" t="s">
+      <c r="F19" s="20"/>
+      <c r="G19" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="H19" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I19" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="J19" s="25" t="s">
+      <c r="H19" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" s="24"/>
+      <c r="J19" s="25"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="28"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="84" customHeight="1" spans="1:20">
+      <c r="A20" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="26"/>
-      <c r="T19" s="26"/>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="90" spans="1:20">
-      <c r="A20" s="13" t="s">
+      <c r="B20" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="C20" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="15" t="s">
         <v>44</v>
       </c>
       <c r="E20" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F20" s="19"/>
-      <c r="G20" s="20" t="s">
+      <c r="F20" s="20"/>
+      <c r="G20" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="H20" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I20" s="23" t="s">
+      <c r="H20" s="21"/>
+      <c r="I20" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="J20" s="25" t="s">
+      <c r="J20" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="28"/>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="128" customHeight="1" spans="1:20">
+      <c r="A21" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="26"/>
-      <c r="T20" s="26"/>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="105" spans="1:20">
-      <c r="A21" s="13" t="s">
+      <c r="B21" s="13" t="s">
         <v>47</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>43</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>48</v>
@@ -1939,33 +1988,31 @@
       <c r="E21" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="20" t="s">
+      <c r="F21" s="20"/>
+      <c r="G21" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" s="21"/>
+      <c r="I21" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="J21" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="H21" s="20" t="s">
+      <c r="Q21" s="28"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="28"/>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="105" spans="1:20">
+      <c r="A22" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="I21" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="J21" s="25" t="s">
+      <c r="B22" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="26"/>
-      <c r="T21" s="26"/>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="90" spans="1:20">
-      <c r="A22" s="13" t="s">
+      <c r="C22" s="14" t="s">
         <v>54</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>48</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>55</v>
@@ -1973,116 +2020,150 @@
       <c r="E22" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="19"/>
-      <c r="G22" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H22" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I22" s="23" t="s">
+      <c r="F22" s="20"/>
+      <c r="G22" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="I22" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="J22" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="26"/>
-      <c r="S22" s="26"/>
-      <c r="T22" s="26"/>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="70.5" customHeight="1" spans="1:20">
+      <c r="J22" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="28"/>
+      <c r="S22" s="28"/>
+      <c r="T22" s="28"/>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="90" spans="1:20">
       <c r="A23" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="F23" s="19"/>
-      <c r="G23" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H23" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="20"/>
+      <c r="G23" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="I23" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="J23" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="28"/>
+      <c r="S23" s="28"/>
+      <c r="T23" s="28"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="70.5" customHeight="1" spans="1:20">
+      <c r="A24" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="I23" s="23" t="s">
+      <c r="C24" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="20"/>
+      <c r="G24" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="I24" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="J23" s="25" t="s">
+      <c r="J24" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="28"/>
+      <c r="T24" s="28"/>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="75.75" customHeight="1" spans="1:20">
+      <c r="A25" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="26"/>
-      <c r="S23" s="26"/>
-      <c r="T23" s="26"/>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="75.75" customHeight="1" spans="1:20">
-      <c r="A24" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" s="14" t="s">
+      <c r="D25" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" s="22"/>
+      <c r="G25" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="F24" s="21"/>
-      <c r="G24" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H24" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I24" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="J24" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="26"/>
-      <c r="S24" s="26"/>
-      <c r="T24" s="26"/>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="17:20">
-      <c r="Q25" s="26"/>
-      <c r="R25" s="26"/>
-      <c r="S25" s="26"/>
-      <c r="T25" s="26"/>
-    </row>
-    <row r="27" ht="15" spans="1:2">
-      <c r="A27" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>69</v>
-      </c>
+      <c r="H25" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="I25" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="J25" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="28"/>
+      <c r="S25" s="28"/>
+      <c r="T25" s="28"/>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="17:20">
+      <c r="Q26" s="28"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="28"/>
+      <c r="T26" s="28"/>
     </row>
     <row r="28" ht="15" spans="1:2">
       <c r="A28" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" s="17">
+        <v>77</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" ht="15" spans="1:2">
+      <c r="A29" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="18">
         <v>44340</v>
       </c>
     </row>
-    <row r="32" ht="15" spans="1:1">
-      <c r="A32" s="11"/>
+    <row r="33" ht="15" spans="1:1">
+      <c r="A33" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2090,13 +2171,13 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J18" r:id="rId2" display="\\logserver\Demanda\A-416\LogId1.LOG"/>
-    <hyperlink ref="J24" r:id="rId3" display="\\logserver\Demanda\A-416\LogId7.LOG"/>
-    <hyperlink ref="I24" r:id="rId4" display="\\logserver\Demanda\A-416\TelaId7"/>
-    <hyperlink ref="J20" r:id="rId5" display="\\logserver\Demanda\A-416\LogId3.LOG"/>
-    <hyperlink ref="J19" r:id="rId6" display="\\logserver\Demanda\A-416\LogId2.LOG"/>
-    <hyperlink ref="J21" r:id="rId7" display="\\logserver\Demanda\A-416\LogId4.LOG"/>
-    <hyperlink ref="J22" r:id="rId8" display="\\logserver\Demanda\A-416\LogId5.LOG"/>
-    <hyperlink ref="J23" r:id="rId9" display="\\logserver\Demanda\A-416\LogId6.LOG"/>
+    <hyperlink ref="J25" r:id="rId3" display="\\logserver\Demanda\A-416\LogId7.LOG"/>
+    <hyperlink ref="I25" r:id="rId4" display="\\logserver\Demanda\A-416\TelaId7"/>
+    <hyperlink ref="J21" r:id="rId5" display="\\logserver\Demanda\A-416\LogId3.LOG"/>
+    <hyperlink ref="J22" r:id="rId6" display="\\logserver\Demanda\A-416\LogId4.LOG"/>
+    <hyperlink ref="J23" r:id="rId7" display="\\logserver\Demanda\A-416\LogId5.LOG"/>
+    <hyperlink ref="J24" r:id="rId8" display="\\logserver\Demanda\A-416\LogId6.LOG"/>
+    <hyperlink ref="D20" r:id="rId9" display="Código do Cliente: resenha@bandtec.com.br                 Senha: +6 caractecteres."/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0" footer="0.0986111111111111"/>

--- a/documentacao/planilha-UAT/Plano de UAT - Homol v1.xlsx
+++ b/documentacao/planilha-UAT/Plano de UAT - Homol v1.xlsx
@@ -5,22 +5,27 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel Ferraz\OneDrive\Área de Trabalho\Bandtec\3 Semestre\PI\Grupo-Resenha new repositorio\documentacao\planilha-UAT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel Ferraz\OneDrive\Área de Trabalho\Bandtec\3 Semestre\PI\Resenha\documentacao\planilha-UAT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D36AD0-58D1-4E3B-910A-5CC2D942B7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825EABCC-4C7C-4E0D-840F-E0A67AD8B561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="503" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="503" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Cenário - Pesquisar Cliente" sheetId="6" r:id="rId1"/>
+    <sheet name="Cenário - Formulario e Login" sheetId="6" r:id="rId1"/>
+    <sheet name="Cenário Aplicação Menu Lateral" sheetId="8" r:id="rId2"/>
+    <sheet name="Cenario Aplicação Inicio" sheetId="9" r:id="rId3"/>
+    <sheet name="Cenario Aplica Agendar Horario" sheetId="10" r:id="rId4"/>
+    <sheet name="Cenario aplicacação Centros" sheetId="11" r:id="rId5"/>
+    <sheet name="Cenario aplicacação Quadras" sheetId="12" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="281">
   <si>
     <t xml:space="preserve">Projeto: </t>
   </si>
@@ -367,9 +372,6 @@
     <t>Id40</t>
   </si>
   <si>
-    <t>Id41</t>
-  </si>
-  <si>
     <t>Teste Formulario/ Nome</t>
   </si>
   <si>
@@ -412,23 +414,467 @@
     <t>Teste Formulario/ CPF</t>
   </si>
   <si>
-    <t>CPF com no minino 11 caracteres</t>
-  </si>
-  <si>
-    <t>Teste de formulario do cadastro: CPF aceita somente 11 caracteres</t>
-  </si>
-  <si>
     <t>CPF com menos de 11 caracteres</t>
   </si>
   <si>
-    <t xml:space="preserve">Teste de formulario do cadastro: CPF não aceita menos que 11 caracteres </t>
+    <t>campo invalido e com alerta de campo invalido</t>
+  </si>
+  <si>
+    <t>CPF com no minino 11 numeros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teste de formulario do cadastro: CPF não aceita menos que 11 numeros </t>
+  </si>
+  <si>
+    <t>Teste de formulario do cadastro: CPF aceita somente 11 numeros</t>
+  </si>
+  <si>
+    <t>CPF com mais de  11 numeros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPF não aceita letras vai dar campo invalido </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPF não aceita caracteres especiais vai dar campo invalido </t>
+  </si>
+  <si>
+    <t>Teste de formulario do cadastro: CPF não aceita caracteres especiais se não vai dar campo invalido</t>
+  </si>
+  <si>
+    <t>Teste Formulario/ numero de telefone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numero de telefone aceita somente 11 numeros </t>
+  </si>
+  <si>
+    <t>Numero de telefone menor que 11 numeros não aceita</t>
+  </si>
+  <si>
+    <t>Teste de formulario do cadastro: Numero de telefone aceita somente 11 numeros</t>
+  </si>
+  <si>
+    <t>Teste de formulario do cadastro: Numero de telefone não aceita menos que 11 numeros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teste de formulario do cadastro: CPF com mais de 11 numeros </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teste de formulario do cadastro: CPF não aceita letras </t>
+  </si>
+  <si>
+    <t>Numero de telefone não aceita mais que 11 numeros</t>
+  </si>
+  <si>
+    <t>Teste de formulario do cadastro: Numero de telefone não aceita mais que 11 numeros</t>
+  </si>
+  <si>
+    <t>Numero de telefone não aceita letras nem caracteres especiais</t>
+  </si>
+  <si>
+    <t>Teste de formulario do cadastro: Numero de telefone não aceita letras e nem caracteres especiais</t>
+  </si>
+  <si>
+    <t>Teste Formulario/ botão criar conta</t>
+  </si>
+  <si>
+    <t>Botão de criar conta faz a Validação dos campos para verificar se todos estão certos</t>
+  </si>
+  <si>
+    <t>Teste de formulario do Botão criar conta: Valida se todos os campos estão certos</t>
+  </si>
+  <si>
+    <t>Teste de formulario do Botão criar conta: Valida se tem algum campo não preenchido</t>
+  </si>
+  <si>
+    <t>campo não preenchido e com alerta de campo invalido</t>
+  </si>
+  <si>
+    <t>Botão de criar conta verifica se tem algum campo não preenchido</t>
+  </si>
+  <si>
+    <t>Teste Login/ E-mail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verifica se o campo e-mail foi preenchido </t>
+  </si>
+  <si>
+    <t>Teste de Login: Valida se o e-mail esta cadastrado no Banco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verifica se o campo e-mail não foi preenchido </t>
+  </si>
+  <si>
+    <t>Teste de Login: Valida se o e-mail não esta cadastrado no Banco</t>
+  </si>
+  <si>
+    <t>Verifica se o campo esta cadastrado no banco de dados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verifica se o campo e-mail não esta cadastrado no banco de dados </t>
+  </si>
+  <si>
+    <t>Teste de Login: Valida se o campo e-mail foi preechido</t>
+  </si>
+  <si>
+    <t>Teste de Login: Valida se o campo e-mail não foi preechido</t>
+  </si>
+  <si>
+    <t>Teste Login/ Senha</t>
+  </si>
+  <si>
+    <t>Teste de senha: Valida se a senha esta cadastrada no Banco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verifica se o campo senha não esta cadastrado no banco de dados </t>
+  </si>
+  <si>
+    <t>Teste de Login: Valida se a senha não esta cadastrada no Banco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verifica se o campo senha foi preenchido </t>
+  </si>
+  <si>
+    <t>Teste de Login: Valida se o campo senha foi preechido</t>
+  </si>
+  <si>
+    <t>Teste de Login: Valida se o campo senha não foi preechido</t>
+  </si>
+  <si>
+    <t>Teste Formulario/ botão Login</t>
+  </si>
+  <si>
+    <t>Botão de Login faz a Validação dos campos para verificar se todos estão certos</t>
+  </si>
+  <si>
+    <t>Teste de formulario do Botão Login: Valida se tem algum campo não preenchido</t>
+  </si>
+  <si>
+    <t>Botão de Login verifica se tem algum campo não preenchido</t>
+  </si>
+  <si>
+    <t>Verificar se o Botão inicio esta funcionando</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teste menu lateral: Verificar se o botão inicio esta funcionando  </t>
+  </si>
+  <si>
+    <t>Botão volta para a area inicio da aplicação</t>
+  </si>
+  <si>
+    <t>Verificar se o Botão Agendar Horario esta funcionando</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teste menu lateral: Verificar se o botão agendar horario esta funcionando corretamente </t>
+  </si>
+  <si>
+    <t>Botão volta para a area agendar horario da aplicação</t>
+  </si>
+  <si>
+    <t>Verificar se o Botão Cadastrar Centros esta funcionando</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teste menu lateral: Verificar se o botão cadastrar centros esta funcionando corretamente </t>
+  </si>
+  <si>
+    <t>Botão volta para a area cadastrar centros da aplicação</t>
+  </si>
+  <si>
+    <t>Verificar se o Botão Cadastrar Quadras esta funcionando</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teste menu lateral: Verificar se o botão cadastrar quadras esta funcionando corretamente </t>
+  </si>
+  <si>
+    <t>Botão volta para a area cadastrar quadras da aplicação</t>
+  </si>
+  <si>
+    <t>Verificar se o Botão sair esta funcionando</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teste menu lateral: Verificar se o botão sair esta funcionando corretamente </t>
+  </si>
+  <si>
+    <t>Botão sair sai da aplicação e vai para o site institucional</t>
+  </si>
+  <si>
+    <t>Teste Aplicação Menu Lateral / Botão inicio</t>
+  </si>
+  <si>
+    <t>Teste Aplicação Menu Lateral / Botão Agendar horario</t>
+  </si>
+  <si>
+    <t>Teste Aplicação Menu Lateral / Botão Cadastrar Centros</t>
+  </si>
+  <si>
+    <t>Teste Aplicação Menu Lateral / Botão Cadastrar Quadras</t>
+  </si>
+  <si>
+    <t>Teste Aplicação Menu Lateral / Botão Sair</t>
+  </si>
+  <si>
+    <t>Teste Aplicação Inicio</t>
+  </si>
+  <si>
+    <t>Verificar se o Botão escolher quadra esportivas esta funcionando</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teste aplicação inicio: Verificar se o botão escolher quadras aperece as opções de quadras esportivas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aparece as quadras esportivas assim que clica no botão de quadras </t>
+  </si>
+  <si>
+    <t>Gabriel Ferraz</t>
+  </si>
+  <si>
+    <t>Verificar se o Botão escolher quadra esportivas não esta funcionando</t>
+  </si>
+  <si>
+    <t>Se não aparecer as quadras esportivas assim que clica no botão de quadras o teste esta invalido</t>
+  </si>
+  <si>
+    <t>Verificar se o Botão escolher horario das quadras esta funcionando</t>
+  </si>
+  <si>
+    <t>Teste aplicação inicio: Verificar se o botão escolher horario aperece as opções de horarios disponiveis</t>
+  </si>
+  <si>
+    <t>Aparecer os horarios assim que clica no botão de horarios, botão validado com sucesso</t>
+  </si>
+  <si>
+    <t>Verificar se o Botão escolher horario das quadras não esta funcionando</t>
+  </si>
+  <si>
+    <t>Teste aplicação inicio: Verificar se o botão escolher horario não aperece as opções de horarios disponiveis</t>
+  </si>
+  <si>
+    <t>Se não aparecer os horarios assim que clica no botão de horarios, o botão esta com erro na aplicação</t>
+  </si>
+  <si>
+    <t>Teste Aplicação Agendar Horario</t>
+  </si>
+  <si>
+    <t>Verificar se o botão selecione um centro esportivo esta funcionando</t>
+  </si>
+  <si>
+    <t>Teste aplicação Agendar horario: Verificar se o botão selecione um centro esportivo aperece as opçoes de arenas esportivas</t>
+  </si>
+  <si>
+    <t>Centros esportivos aparecendo com sucesso</t>
+  </si>
+  <si>
+    <t>Verificar se o botão selecione um centro esportivo não esta funcionando</t>
+  </si>
+  <si>
+    <t>Teste aplicação Agendar horario: Verificar se o botão selecione um centro esportivo não aperece as opçoes de arenas esportivas</t>
+  </si>
+  <si>
+    <t>Centros esportivos não  aparecendo e o botão com problemas</t>
+  </si>
+  <si>
+    <t>Verificar se o botão selecione uma quadra  esta funcionando</t>
+  </si>
+  <si>
+    <t>Teste aplicação Agendar horario: Verificar se o botão selecione uma quandra aperece as opçoes de quadras esportivas</t>
+  </si>
+  <si>
+    <t>Quadras aparecendo com sucesso</t>
+  </si>
+  <si>
+    <t>Verificar se o botão selecione uma quadra não esta funcionando</t>
+  </si>
+  <si>
+    <t>Teste aplicação Agendar horario: Verificar se o botão selecione uma quadra não aperece as opçoes de quadras disponiveis</t>
+  </si>
+  <si>
+    <t>Quadras não aparecendo e o botão com problemas</t>
+  </si>
+  <si>
+    <t>Verificar se o espaço para colocar o nome do jogador esta dando para escrever</t>
+  </si>
+  <si>
+    <t>Teste aplicação Agendar horario: Verificar se o espaço de colocar o nome do jogador esta disponivel</t>
+  </si>
+  <si>
+    <t>Espaço dando para escrever com sucesso</t>
+  </si>
+  <si>
+    <t>Verificar se o espaço para colocar o valor da quadra esta disponivel para escrever</t>
+  </si>
+  <si>
+    <t>Teste aplicação Agendar horario: Verificar se o espaço de colocar o valor da quadra esta disponivel</t>
+  </si>
+  <si>
+    <t>Verificar se o botão de agendar esta com todos os campos preenchidos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teste aplicação Agendar horario: Verificar se o botão agendar esta validando os campos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teste aplicação Agendar horario: Verificar se o botão agendar esta validando os campos se não estiver dar erro </t>
+  </si>
+  <si>
+    <t>Verificar se o campo modalidade foi preenchdo corretamente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teste aplicação Agendar horario: Verificar se o campo modalidade foi prenchido </t>
+  </si>
+  <si>
+    <t>Verificar se o campo horario foi preenchdo corretamente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teste aplicação Agendar horario: Verificar se o campo horario foi prenchido </t>
+  </si>
+  <si>
+    <t>Teste Aplicação Cadastrar Centros</t>
+  </si>
+  <si>
+    <t>Verificar se o campo nome do centro esportivo esta disponivel para escrever</t>
+  </si>
+  <si>
+    <t>campo escrevendo validado com sucesso</t>
+  </si>
+  <si>
+    <t>Verificar se o campo telefone do centro esportivo esta disponivel para escrever</t>
+  </si>
+  <si>
+    <t>Teste aplicação Cadastrar Centros: Verificar se o campo nome esta disponivel para escrever</t>
+  </si>
+  <si>
+    <t>Teste aplicação Cadastrar Centros: Verificar se o campo telefone esta disponivel para escrever</t>
+  </si>
+  <si>
+    <t>Verificar se o campo CNPJ do centro esportivo esta disponivel para escrever</t>
+  </si>
+  <si>
+    <t>Verificar se o campo CEP do centro esportivo esta disponivel para escrever</t>
+  </si>
+  <si>
+    <t>Teste aplicação Cadastrar Centros: Verificar se o campo CEP esta disponivel para escrever</t>
+  </si>
+  <si>
+    <t>Teste aplicação Cadastrar Centros: Verificar se o campo CNPJ esta disponivel para escrever</t>
+  </si>
+  <si>
+    <t>Verificar se o campo Horario que Abre do centro esportivo esta disponivel para escrever</t>
+  </si>
+  <si>
+    <t>Teste aplicação Cadastrar Centros: Verificar se o campo Horario que abre esta disponivel para escrever</t>
+  </si>
+  <si>
+    <t>Verificar se o campo Horario que Fecha do centro esportivo esta disponivel para escrever</t>
+  </si>
+  <si>
+    <t>Teste aplicação Cadastrar Centros: Verificar se o campo Horario que fecha esta disponivel para escrever</t>
+  </si>
+  <si>
+    <t>Verificar se o campo Numero do centro esportivo esta disponivel para escrever</t>
+  </si>
+  <si>
+    <t>Teste aplicação Cadastrar Centros: Verificar se o campo Horario esta disponivel para escrever</t>
+  </si>
+  <si>
+    <t>Verificar se o botão Limpar do centro esportivo esta limpando os campos caso tenha errado</t>
+  </si>
+  <si>
+    <t>Teste aplicação Cadastrar Centros: Verificar se o botão Limpar do centro esportivo esta limpando os campos</t>
+  </si>
+  <si>
+    <t>Botão Limpar validado com sucesso</t>
+  </si>
+  <si>
+    <t>Verificar se o botão Limpar do centro esportivo não esta limpando os campos caso tenha errado</t>
+  </si>
+  <si>
+    <t>Teste aplicação Cadastrar Centros: Verificar se o botão Limpar do centro esportivo não esta limpando os campos</t>
+  </si>
+  <si>
+    <t>Botão Limpar invalido e não limpando os campos com valor inserido errado</t>
+  </si>
+  <si>
+    <t>Verificar se o botão Cadastrar Centros esta cadastrando os dados dos centros com sucesso</t>
+  </si>
+  <si>
+    <t>Teste aplicação Cadastrar Centros: Verificar se o botão Cadastrar esta cadastrando os dados</t>
+  </si>
+  <si>
+    <t>Botão Cadastrar validado com sucesso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verificar se o botão Cadastrar Centros não esta cadastrando os dados dos centros </t>
+  </si>
+  <si>
+    <t>Teste aplicação Cadastrar Centros: Verificar se o botão Cadastrar não esta cadastrando os dados</t>
+  </si>
+  <si>
+    <t>Botão Cadastrar invalido e não cadastrando os campos preenchidos</t>
+  </si>
+  <si>
+    <t>Teste Aplicação Cadastrar Quadras</t>
+  </si>
+  <si>
+    <t>Verificar se o botão centro esportivo esta mostrando as quadras disponiveis para cadastrar</t>
+  </si>
+  <si>
+    <t>Botão selecione um centro esportivo esta funcionando com sucesso</t>
+  </si>
+  <si>
+    <t>Verificar se o campo nome da quadra esta dando para escrever</t>
+  </si>
+  <si>
+    <t>Campo quadra esta  escrevendo e funcionando com sucesso</t>
+  </si>
+  <si>
+    <t>Verificar se o botão modalidade da quadra esta dando para selecionar e aparecendo as modalidades cadastradas</t>
+  </si>
+  <si>
+    <t>Botão selecione uma modalidade esta mostrando as modalidas disponiveis</t>
+  </si>
+  <si>
+    <t>Verificar se o campo numero da quadra esta dando para escrever os caracteres</t>
+  </si>
+  <si>
+    <t>Teste aplicação Cadastrar Quadras: verificar se o botão modalidade esta selecionando as modalidades disponiveis e cadastradas</t>
+  </si>
+  <si>
+    <t>Teste aplicação Cadastrar Quadras: verificar se o botão quadra esportiva esta mostrando as quadras disponiveis</t>
+  </si>
+  <si>
+    <t>Teste aplicação Cadastrar Quadras: verificar se o campo nome quadra esta escrevendo</t>
+  </si>
+  <si>
+    <t>Campo nuemro da quadra esta  escrevendo e funcionando com sucesso</t>
+  </si>
+  <si>
+    <t>Verificar se o botão Limpar da quadra esportiva esta limpando os campos caso tenha errado</t>
+  </si>
+  <si>
+    <t>Verificar se o botão Limpar da quadra esportiva não esta limpando os campos caso tenha errado</t>
+  </si>
+  <si>
+    <t>Verificar se o botão Cadastrar Quadras não esta cadastrando os dados das quadras</t>
+  </si>
+  <si>
+    <t>Verificar se o botão Cadastrar Quadras esta cadastrando os dados das quadras com sucesso</t>
+  </si>
+  <si>
+    <t>Teste aplicação Cadastrar Quadras: Verificar se o botão Limpar da quadra esta limpando os campos</t>
+  </si>
+  <si>
+    <t>Teste aplicação Cadastrar Quadras: Verificar se o botão Limpar da quadra não esta limpando os campos</t>
+  </si>
+  <si>
+    <t>Teste aplicação Cadastrar Quadras: Verificar se o botão Cadastrar esta cadastrando os dados</t>
+  </si>
+  <si>
+    <t>Teste aplicação Cadastrar Quadras: Verificar se o botão Cadastrar não esta cadastrando os dados</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -535,6 +981,24 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -684,7 +1148,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -791,6 +1255,65 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="13" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="13" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1177,10 +1700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T65"/>
+  <dimension ref="A1:T64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15"/>
@@ -1222,9 +1745,10 @@
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="43" t="s">
         <v>75</v>
       </c>
+      <c r="C3" s="43"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
@@ -1250,10 +1774,10 @@
       <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="28"/>
+      <c r="C8" s="42"/>
       <c r="D8" s="10"/>
     </row>
     <row r="10" spans="1:10">
@@ -1322,7 +1846,7 @@
         <v>26</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C18" s="25" t="s">
         <v>54</v>
@@ -1356,7 +1880,7 @@
         <v>31</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C19" s="25" t="s">
         <v>58</v>
@@ -1365,7 +1889,7 @@
         <v>57</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="17" t="s">
@@ -1390,7 +1914,7 @@
         <v>32</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20" s="25" t="s">
         <v>55</v>
@@ -1420,7 +1944,7 @@
         <v>33</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C21" s="25" t="s">
         <v>63</v>
@@ -1454,7 +1978,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>76</v>
@@ -1463,7 +1987,7 @@
         <v>77</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="17" t="s">
@@ -1482,7 +2006,7 @@
         <v>38</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C23" s="27" t="s">
         <v>67</v>
@@ -1514,7 +2038,7 @@
         <v>41</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C24" s="25" t="s">
         <v>69</v>
@@ -1523,7 +2047,7 @@
         <v>70</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="F24" s="16"/>
       <c r="G24" s="17" t="s">
@@ -1548,7 +2072,7 @@
         <v>44</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C25" s="25" t="s">
         <v>71</v>
@@ -1582,7 +2106,7 @@
         <v>53</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C26" s="25" t="s">
         <v>73</v>
@@ -1616,7 +2140,7 @@
         <v>87</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>78</v>
@@ -1625,7 +2149,7 @@
         <v>79</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="F27" s="16"/>
       <c r="G27" s="17" t="s">
@@ -1644,7 +2168,7 @@
         <v>88</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>80</v>
@@ -1678,7 +2202,7 @@
         <v>50</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>83</v>
@@ -1706,10 +2230,10 @@
         <v>89</v>
       </c>
       <c r="B30" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" s="14" t="s">
         <v>118</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>119</v>
       </c>
       <c r="D30" s="25" t="s">
         <v>82</v>
@@ -1734,7 +2258,7 @@
         <v>90</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C31" s="25" t="s">
         <v>85</v>
@@ -1762,13 +2286,13 @@
         <v>91</v>
       </c>
       <c r="B32" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="D32" s="25" t="s">
         <v>120</v>
-      </c>
-      <c r="C32" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="D32" s="25" t="s">
-        <v>121</v>
       </c>
       <c r="E32" s="25" t="s">
         <v>59</v>
@@ -1790,16 +2314,16 @@
         <v>92</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C33" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="D33" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="D33" s="25" t="s">
-        <v>123</v>
-      </c>
       <c r="E33" s="25" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="F33" s="18"/>
       <c r="G33" s="17" t="s">
@@ -1818,13 +2342,13 @@
         <v>93</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C34" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34" s="25" t="s">
         <v>125</v>
-      </c>
-      <c r="D34" s="25" t="s">
-        <v>126</v>
       </c>
       <c r="E34" s="25" t="s">
         <v>59</v>
@@ -1846,13 +2370,13 @@
         <v>94</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C35" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="D35" s="25" t="s">
         <v>127</v>
-      </c>
-      <c r="D35" s="25" t="s">
-        <v>128</v>
       </c>
       <c r="E35" s="25" t="s">
         <v>65</v>
@@ -1874,13 +2398,13 @@
         <v>95</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E36" s="25" t="s">
         <v>59</v>
@@ -1902,16 +2426,16 @@
         <v>96</v>
       </c>
       <c r="B37" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C37" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="D37" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="D37" s="25" t="s">
-        <v>133</v>
-      </c>
       <c r="E37" s="25" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="F37" s="18"/>
       <c r="G37" s="17" t="s">
@@ -1929,10 +2453,18 @@
       <c r="A38" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
+      <c r="B38" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>130</v>
+      </c>
       <c r="F38" s="18"/>
       <c r="G38" s="17" t="s">
         <v>27</v>
@@ -1949,10 +2481,18 @@
       <c r="A39" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B39" s="13"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
+      <c r="B39" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="D39" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="E39" s="25" t="s">
+        <v>130</v>
+      </c>
       <c r="F39" s="18"/>
       <c r="G39" s="17" t="s">
         <v>27</v>
@@ -1969,10 +2509,18 @@
       <c r="A40" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B40" s="13"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
+      <c r="B40" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="D40" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="E40" s="25" t="s">
+        <v>130</v>
+      </c>
       <c r="F40" s="18"/>
       <c r="G40" s="17" t="s">
         <v>27</v>
@@ -1989,10 +2537,18 @@
       <c r="A41" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
+      <c r="B41" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="D41" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="E41" s="25" t="s">
+        <v>59</v>
+      </c>
       <c r="F41" s="18"/>
       <c r="G41" s="17" t="s">
         <v>27</v>
@@ -2009,10 +2565,18 @@
       <c r="A42" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B42" s="13"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
+      <c r="B42" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D42" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="E42" s="25" t="s">
+        <v>130</v>
+      </c>
       <c r="F42" s="18"/>
       <c r="G42" s="17" t="s">
         <v>27</v>
@@ -2029,10 +2593,18 @@
       <c r="A43" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="B43" s="13"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
+      <c r="B43" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D43" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="E43" s="25" t="s">
+        <v>130</v>
+      </c>
       <c r="F43" s="18"/>
       <c r="G43" s="17" t="s">
         <v>27</v>
@@ -2049,10 +2621,18 @@
       <c r="A44" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="B44" s="13"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
+      <c r="B44" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="E44" s="25" t="s">
+        <v>130</v>
+      </c>
       <c r="F44" s="18"/>
       <c r="G44" s="17" t="s">
         <v>27</v>
@@ -2069,10 +2649,18 @@
       <c r="A45" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="B45" s="13"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
+      <c r="B45" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="D45" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="E45" s="25" t="s">
+        <v>59</v>
+      </c>
       <c r="F45" s="18"/>
       <c r="G45" s="17" t="s">
         <v>27</v>
@@ -2089,10 +2677,18 @@
       <c r="A46" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="B46" s="13"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
+      <c r="B46" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="D46" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="E46" s="25" t="s">
+        <v>153</v>
+      </c>
       <c r="F46" s="18"/>
       <c r="G46" s="17" t="s">
         <v>27</v>
@@ -2105,21 +2701,21 @@
       <c r="S46" s="24"/>
       <c r="T46" s="24"/>
     </row>
-    <row r="47" spans="1:20" s="1" customFormat="1" ht="75.75" customHeight="1">
-      <c r="A47" s="13" t="s">
+    <row r="47" spans="1:20" s="1" customFormat="1" ht="73.5" customHeight="1">
+      <c r="A47" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="B47" s="13"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H47" s="17"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" s="32"/>
+      <c r="I47" s="33"/>
+      <c r="J47" s="33"/>
       <c r="Q47" s="24"/>
       <c r="R47" s="24"/>
       <c r="S47" s="24"/>
@@ -2129,10 +2725,18 @@
       <c r="A48" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="B48" s="13"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
+      <c r="B48" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="D48" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="E48" s="25" t="s">
+        <v>59</v>
+      </c>
       <c r="F48" s="18"/>
       <c r="G48" s="17" t="s">
         <v>27</v>
@@ -2149,10 +2753,18 @@
       <c r="A49" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="B49" s="13"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
+      <c r="B49" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="D49" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="E49" s="25" t="s">
+        <v>153</v>
+      </c>
       <c r="F49" s="18"/>
       <c r="G49" s="17" t="s">
         <v>27</v>
@@ -2169,10 +2781,18 @@
       <c r="A50" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="B50" s="13"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
+      <c r="B50" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="D50" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="E50" s="25" t="s">
+        <v>59</v>
+      </c>
       <c r="F50" s="18"/>
       <c r="G50" s="17" t="s">
         <v>27</v>
@@ -2189,10 +2809,18 @@
       <c r="A51" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="13"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
+      <c r="B51" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="D51" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="E51" s="25" t="s">
+        <v>153</v>
+      </c>
       <c r="F51" s="18"/>
       <c r="G51" s="17" t="s">
         <v>27</v>
@@ -2209,10 +2837,18 @@
       <c r="A52" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="B52" s="13"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
+      <c r="B52" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="D52" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="E52" s="25" t="s">
+        <v>59</v>
+      </c>
       <c r="F52" s="18"/>
       <c r="G52" s="17" t="s">
         <v>27</v>
@@ -2229,10 +2865,18 @@
       <c r="A53" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="B53" s="13"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
+      <c r="B53" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="D53" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="E53" s="25" t="s">
+        <v>130</v>
+      </c>
       <c r="F53" s="18"/>
       <c r="G53" s="17" t="s">
         <v>27</v>
@@ -2249,10 +2893,18 @@
       <c r="A54" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="B54" s="13"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
+      <c r="B54" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="D54" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="E54" s="25" t="s">
+        <v>59</v>
+      </c>
       <c r="F54" s="18"/>
       <c r="G54" s="17" t="s">
         <v>27</v>
@@ -2269,10 +2921,18 @@
       <c r="A55" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="B55" s="13"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
+      <c r="B55" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="D55" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="E55" s="25" t="s">
+        <v>153</v>
+      </c>
       <c r="F55" s="18"/>
       <c r="G55" s="17" t="s">
         <v>27</v>
@@ -2289,14 +2949,20 @@
       <c r="A56" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="B56" s="13"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
+      <c r="B56" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="D56" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="E56" s="25" t="s">
+        <v>59</v>
+      </c>
       <c r="F56" s="18"/>
-      <c r="G56" s="17" t="s">
-        <v>27</v>
-      </c>
+      <c r="G56" s="17"/>
       <c r="H56" s="17"/>
       <c r="I56" s="23"/>
       <c r="J56" s="23"/>
@@ -2309,14 +2975,20 @@
       <c r="A57" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="B57" s="13"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
+      <c r="B57" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="D57" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="E57" s="25" t="s">
+        <v>153</v>
+      </c>
       <c r="F57" s="18"/>
-      <c r="G57" s="17" t="s">
-        <v>27</v>
-      </c>
+      <c r="G57" s="17"/>
       <c r="H57" s="17"/>
       <c r="I57" s="23"/>
       <c r="J57" s="23"/>
@@ -2325,45 +2997,26 @@
       <c r="S57" s="24"/>
       <c r="T57" s="24"/>
     </row>
-    <row r="58" spans="1:20" s="1" customFormat="1" ht="75.75" customHeight="1">
-      <c r="A58" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="B58" s="13"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H58" s="17"/>
-      <c r="I58" s="23"/>
-      <c r="J58" s="23"/>
-      <c r="Q58" s="24"/>
-      <c r="R58" s="24"/>
-      <c r="S58" s="24"/>
-      <c r="T58" s="24"/>
+    <row r="63" spans="1:20" ht="30">
+      <c r="A63" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="64" spans="1:20" ht="30">
       <c r="A64" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B64" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="30">
-      <c r="A65" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B65" s="13">
+      <c r="B64" s="13">
         <v>44340</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B3:C3"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
@@ -2383,4 +3036,3582 @@
     <oddFooter>&amp;CSeite &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13F39B05-91A4-4107-8476-B280BE6FC6B0}">
+  <dimension ref="A1:J29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" style="2" customWidth="1"/>
+    <col min="2" max="5" width="30.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" style="3" customWidth="1"/>
+    <col min="7" max="10" width="30.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="35.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="7">
+        <v>44516</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="5"/>
+      <c r="B6" s="8"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="42"/>
+      <c r="D8" s="28"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="F16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="19"/>
+    </row>
+    <row r="17" spans="1:10" ht="75.75" customHeight="1">
+      <c r="A17" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="75.75" customHeight="1">
+      <c r="A18" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="G18" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="75.75" customHeight="1">
+      <c r="A19" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="F19" s="16"/>
+      <c r="G19" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="75.75" customHeight="1">
+      <c r="A20" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="F20" s="16"/>
+      <c r="G20" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
+    </row>
+    <row r="21" spans="1:10" ht="75.75" customHeight="1">
+      <c r="A21" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="F21" s="16"/>
+      <c r="G21" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="I21" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" s="22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="75.75" customHeight="1">
+      <c r="A22" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="F22" s="16"/>
+      <c r="G22" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="26"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="22"/>
+    </row>
+    <row r="28" spans="1:10" ht="30">
+      <c r="A28" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="30">
+      <c r="A29" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="13">
+        <v>44340</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="J18" r:id="rId1" xr:uid="{6C77BB31-B012-45BF-AF65-A9329B283E02}"/>
+    <hyperlink ref="J19" r:id="rId2" xr:uid="{4B5CAB8B-440C-4C18-A77F-6A982064CE6A}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C66147-E3C3-40FB-9090-A63EBAC4DF40}">
+  <dimension ref="A1:J69"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="15" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="15">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" ht="15">
+      <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" ht="15">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="7">
+        <v>44516</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" ht="15">
+      <c r="A5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" ht="15">
+      <c r="A6" s="5"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" ht="15">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" ht="15">
+      <c r="A8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="42"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" ht="15">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" ht="15">
+      <c r="A10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" ht="15">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" ht="15">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" ht="15">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" ht="15">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" ht="15">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" ht="15">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="19"/>
+    </row>
+    <row r="17" spans="1:10" ht="75.75" customHeight="1">
+      <c r="A17" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="75.75" customHeight="1">
+      <c r="A18" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="G18" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="75.75" customHeight="1">
+      <c r="A19" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="F19" s="16"/>
+      <c r="G19" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="75.75" customHeight="1">
+      <c r="A20" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="F20" s="16"/>
+      <c r="G20" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
+    </row>
+    <row r="21" spans="1:10" ht="75.75" customHeight="1">
+      <c r="A21" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="F21" s="16"/>
+      <c r="G21" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="I21" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" s="22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="75.75" customHeight="1">
+      <c r="A22" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="34"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="26"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="22"/>
+    </row>
+    <row r="23" spans="1:10" ht="75.75" customHeight="1">
+      <c r="A23" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="34"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="17"/>
+      <c r="I23" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" s="23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="75.75" customHeight="1">
+      <c r="A24" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="34"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I24" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" s="23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="75.75" customHeight="1">
+      <c r="A25" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="13"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="75.75" customHeight="1">
+      <c r="A26" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I26" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J26" s="23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="75.75" customHeight="1">
+      <c r="A27" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="13"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" s="17"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="23"/>
+    </row>
+    <row r="28" spans="1:10" ht="75.75" customHeight="1">
+      <c r="A28" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I28" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="J28" s="23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="75.75" customHeight="1">
+      <c r="A29" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="13"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" s="17"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+    </row>
+    <row r="30" spans="1:10" ht="75.75" customHeight="1">
+      <c r="A30" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" s="13"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" s="17"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+    </row>
+    <row r="31" spans="1:10" ht="75.75" customHeight="1">
+      <c r="A31" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="13"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" s="17"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+    </row>
+    <row r="32" spans="1:10" ht="75.75" customHeight="1">
+      <c r="A32" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="13"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" s="17"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+    </row>
+    <row r="33" spans="1:10" ht="75.75" customHeight="1">
+      <c r="A33" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" s="13"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" s="17"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+    </row>
+    <row r="34" spans="1:10" ht="75.75" customHeight="1">
+      <c r="A34" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" s="13"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" s="17"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+    </row>
+    <row r="35" spans="1:10" ht="75.75" customHeight="1">
+      <c r="A35" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="B35" s="13"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" s="17"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+    </row>
+    <row r="36" spans="1:10" ht="75.75" customHeight="1">
+      <c r="A36" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36" s="13"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" s="17"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+    </row>
+    <row r="37" spans="1:10" ht="75.75" customHeight="1">
+      <c r="A37" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37" s="13"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" s="17"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+    </row>
+    <row r="38" spans="1:10" ht="75.75" customHeight="1">
+      <c r="A38" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="B38" s="13"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" s="17"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+    </row>
+    <row r="39" spans="1:10" ht="75.75" customHeight="1">
+      <c r="A39" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" s="13"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" s="17"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+    </row>
+    <row r="40" spans="1:10" ht="75.75" customHeight="1">
+      <c r="A40" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="13"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" s="17"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+    </row>
+    <row r="41" spans="1:10" ht="75.75" customHeight="1">
+      <c r="A41" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B41" s="13"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" s="17"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+    </row>
+    <row r="42" spans="1:10" ht="75.75" customHeight="1">
+      <c r="A42" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="B42" s="13"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42" s="17"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
+    </row>
+    <row r="43" spans="1:10" ht="75.75" customHeight="1">
+      <c r="A43" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="B43" s="13"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H43" s="17"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+    </row>
+    <row r="44" spans="1:10" ht="75.75" customHeight="1">
+      <c r="A44" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44" s="13"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" s="17"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
+    </row>
+    <row r="45" spans="1:10" ht="75.75" customHeight="1">
+      <c r="A45" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="B45" s="13"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H45" s="17"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="23"/>
+    </row>
+    <row r="46" spans="1:10" ht="75.75" customHeight="1">
+      <c r="A46" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="B46" s="13"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" s="17"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
+    </row>
+    <row r="47" spans="1:10" s="40" customFormat="1" ht="75.75" customHeight="1">
+      <c r="A47" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="B47" s="35"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" s="38"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="39"/>
+    </row>
+    <row r="48" spans="1:10" ht="75.75" customHeight="1">
+      <c r="A48" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="B48" s="13"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H48" s="17"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="23"/>
+    </row>
+    <row r="49" spans="1:10" ht="75.75" customHeight="1">
+      <c r="A49" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="B49" s="13"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H49" s="17"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="23"/>
+    </row>
+    <row r="50" spans="1:10" ht="75.75" customHeight="1">
+      <c r="A50" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="B50" s="13"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H50" s="17"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="23"/>
+    </row>
+    <row r="51" spans="1:10" ht="75.75" customHeight="1">
+      <c r="A51" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="13"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H51" s="17"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="23"/>
+    </row>
+    <row r="52" spans="1:10" ht="75.75" customHeight="1">
+      <c r="A52" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="B52" s="13"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H52" s="17"/>
+      <c r="I52" s="23"/>
+      <c r="J52" s="23"/>
+    </row>
+    <row r="53" spans="1:10" ht="75.75" customHeight="1">
+      <c r="A53" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="B53" s="13"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H53" s="17"/>
+      <c r="I53" s="23"/>
+      <c r="J53" s="23"/>
+    </row>
+    <row r="54" spans="1:10" ht="75.75" customHeight="1">
+      <c r="A54" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="B54" s="13"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H54" s="17"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="23"/>
+    </row>
+    <row r="55" spans="1:10" ht="75.75" customHeight="1">
+      <c r="A55" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="B55" s="13"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H55" s="17"/>
+      <c r="I55" s="23"/>
+      <c r="J55" s="23"/>
+    </row>
+    <row r="56" spans="1:10" ht="75.75" customHeight="1">
+      <c r="A56" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="B56" s="13"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="23"/>
+      <c r="J56" s="23"/>
+    </row>
+    <row r="57" spans="1:10" ht="75.75" customHeight="1">
+      <c r="A57" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="B57" s="13"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="23"/>
+    </row>
+    <row r="58" spans="1:10" ht="15">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+    </row>
+    <row r="59" spans="1:10" ht="15">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+    </row>
+    <row r="60" spans="1:10" ht="15">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+    </row>
+    <row r="61" spans="1:10" ht="15">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+    </row>
+    <row r="62" spans="1:10" ht="15">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+    </row>
+    <row r="63" spans="1:10" ht="30">
+      <c r="A63" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+    </row>
+    <row r="64" spans="1:10" ht="15">
+      <c r="A64" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B64" s="13">
+        <v>44340</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+    </row>
+    <row r="65" spans="1:10" ht="15">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+    </row>
+    <row r="66" spans="1:10" ht="15">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+    </row>
+    <row r="67" spans="1:10" ht="15">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+    </row>
+    <row r="68" spans="1:10" ht="15">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+    </row>
+    <row r="69" spans="1:10" ht="15">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B8:C8"/>
+  </mergeCells>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="J18" r:id="rId1" xr:uid="{9DABC889-4A20-43F4-B6DD-CB4EE7B01958}"/>
+    <hyperlink ref="J28" r:id="rId2" xr:uid="{8A49FBEF-5866-4520-B318-5F21777BEA31}"/>
+    <hyperlink ref="I28" r:id="rId3" xr:uid="{8A490F7F-E542-4D56-A128-31B8E80BA0CA}"/>
+    <hyperlink ref="J23" r:id="rId4" xr:uid="{921F38B1-8369-4F96-AE03-A064A6BEF46E}"/>
+    <hyperlink ref="J24" r:id="rId5" xr:uid="{31F1D017-2575-47A5-A6F3-9A732A537CEF}"/>
+    <hyperlink ref="J25" r:id="rId6" xr:uid="{E902BC48-17FC-4B3A-AE57-0B83CEDE42D6}"/>
+    <hyperlink ref="J26" r:id="rId7" xr:uid="{5BB6D761-19A5-419A-9F2E-E45EC162F1BA}"/>
+    <hyperlink ref="J19" r:id="rId8" xr:uid="{B0B4FDA6-C12C-4FC9-87D9-13CD438B4AAA}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C949B7-1B9A-4675-A2BC-C93D260409E8}">
+  <dimension ref="A1:J39"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="15" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="15">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" ht="15">
+      <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" ht="15">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="7">
+        <v>44516</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" ht="15">
+      <c r="A5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" ht="15">
+      <c r="A6" s="5"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" ht="15">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" ht="15">
+      <c r="A8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="42"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" ht="15">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" ht="15">
+      <c r="A10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" ht="15">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" ht="15">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" ht="15">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" ht="15">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" ht="15">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" ht="15">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="19"/>
+    </row>
+    <row r="17" spans="1:10" ht="90" customHeight="1">
+      <c r="A17" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="90" customHeight="1">
+      <c r="A18" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="G18" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="90" customHeight="1">
+      <c r="A19" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="F19" s="16"/>
+      <c r="G19" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="90" customHeight="1">
+      <c r="A20" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="F20" s="16"/>
+      <c r="G20" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
+    </row>
+    <row r="21" spans="1:10" ht="90" customHeight="1">
+      <c r="A21" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="F21" s="16"/>
+      <c r="G21" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="I21" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" s="22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="90" customHeight="1">
+      <c r="A22" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="F22" s="16"/>
+      <c r="G22" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="26"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="22"/>
+    </row>
+    <row r="23" spans="1:10" ht="90" customHeight="1">
+      <c r="A23" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="F23" s="16"/>
+      <c r="G23" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="17"/>
+      <c r="I23" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" s="23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="90" customHeight="1">
+      <c r="A24" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="16"/>
+      <c r="G24" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I24" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" s="23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="90" customHeight="1">
+      <c r="A25" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="F25" s="16"/>
+      <c r="G25" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="90" customHeight="1">
+      <c r="A26" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="16"/>
+      <c r="G26" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I26" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J26" s="23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="90" customHeight="1">
+      <c r="A27" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="F27" s="16"/>
+      <c r="G27" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" s="17"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="23"/>
+    </row>
+    <row r="28" spans="1:10" ht="15">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="1:10" ht="15">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" ht="15">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="1:10" ht="15">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:10" ht="15">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="1:10" ht="30">
+      <c r="A33" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="1:10" ht="15">
+      <c r="A34" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="13">
+        <v>44340</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="1:10" ht="15">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+    </row>
+    <row r="36" spans="1:10" ht="15">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+    </row>
+    <row r="37" spans="1:10" ht="15">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+    </row>
+    <row r="38" spans="1:10" ht="15">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+    </row>
+    <row r="39" spans="1:10" ht="15">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B8:C8"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="J18" r:id="rId1" xr:uid="{3420CE0E-BEFD-457D-9E35-773ADB0C9AB4}"/>
+    <hyperlink ref="J23" r:id="rId2" xr:uid="{0B745609-8704-4241-BDC1-5FEBD07200E9}"/>
+    <hyperlink ref="J24" r:id="rId3" xr:uid="{BB955BA0-BB29-4ACA-B1B4-A2B9B9D17D00}"/>
+    <hyperlink ref="J25" r:id="rId4" xr:uid="{191E78B5-6D65-4981-A6F7-06F10ECCEA1E}"/>
+    <hyperlink ref="J26" r:id="rId5" xr:uid="{A8C51E11-9D9C-40ED-BFC7-E572217FD80D}"/>
+    <hyperlink ref="J19" r:id="rId6" xr:uid="{F9EB2F0E-1E9C-4C27-A081-D76F3C27CB22}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C092A707-8036-42B7-8218-95FCEBCDFD96}">
+  <dimension ref="A1:J39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="15" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="15">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" ht="15">
+      <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" ht="15">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="7">
+        <v>44516</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" ht="15">
+      <c r="A5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" ht="15">
+      <c r="A6" s="5"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" ht="15">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" ht="15">
+      <c r="A8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="42"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" ht="15">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" ht="15">
+      <c r="A10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" ht="15">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" ht="15">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" ht="15">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" ht="15">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" ht="15">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" ht="15">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="19"/>
+    </row>
+    <row r="17" spans="1:10" ht="90" customHeight="1">
+      <c r="A17" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="90" customHeight="1">
+      <c r="A18" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="G18" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="90" customHeight="1">
+      <c r="A19" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="F19" s="16"/>
+      <c r="G19" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="90" customHeight="1">
+      <c r="A20" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="F20" s="16"/>
+      <c r="G20" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
+    </row>
+    <row r="21" spans="1:10" ht="90" customHeight="1">
+      <c r="A21" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="F21" s="16"/>
+      <c r="G21" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="I21" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" s="22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="90" customHeight="1">
+      <c r="A22" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="F22" s="16"/>
+      <c r="G22" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="26"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="22"/>
+    </row>
+    <row r="23" spans="1:10" ht="90" customHeight="1">
+      <c r="A23" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="F23" s="16"/>
+      <c r="G23" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="17"/>
+      <c r="I23" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" s="23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="90" customHeight="1">
+      <c r="A24" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="F24" s="16"/>
+      <c r="G24" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I24" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" s="23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="90" customHeight="1">
+      <c r="A25" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="F25" s="16"/>
+      <c r="G25" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="90" customHeight="1">
+      <c r="A26" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="F26" s="16"/>
+      <c r="G26" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I26" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J26" s="23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="90" customHeight="1">
+      <c r="A27" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="F27" s="16"/>
+      <c r="G27" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" s="17"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="23"/>
+    </row>
+    <row r="28" spans="1:10" ht="90" customHeight="1">
+      <c r="A28" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="F28" s="16"/>
+      <c r="G28" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" s="17"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="23"/>
+    </row>
+    <row r="29" spans="1:10" ht="15">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" ht="15">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="1:10" ht="15">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:10" ht="15">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="1:10" ht="30">
+      <c r="A33" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="1:10" ht="15">
+      <c r="A34" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="13">
+        <v>44340</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="1:10" ht="15">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+    </row>
+    <row r="36" spans="1:10" ht="15">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+    </row>
+    <row r="37" spans="1:10" ht="15">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+    </row>
+    <row r="38" spans="1:10" ht="15">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+    </row>
+    <row r="39" spans="1:10" ht="15">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B8:C8"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="J18" r:id="rId1" xr:uid="{F7471FDC-F768-4577-BEEC-ADF80A0CFF74}"/>
+    <hyperlink ref="J23" r:id="rId2" xr:uid="{FF896BE8-0F33-4566-B0EC-7D5F0C24C6F4}"/>
+    <hyperlink ref="J24" r:id="rId3" xr:uid="{8408E199-151C-477A-86F6-BD9B5BFEB9D5}"/>
+    <hyperlink ref="J25" r:id="rId4" xr:uid="{C4E81FFF-7B0A-4127-A098-58420EA50369}"/>
+    <hyperlink ref="J26" r:id="rId5" xr:uid="{14645FEA-0A3E-4130-9B3F-3C2B945D3B0B}"/>
+    <hyperlink ref="J19" r:id="rId6" xr:uid="{6F96321F-E8B6-4AF7-816D-387938B5CB9C}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4710999F-3331-44C6-9799-EC0AD1A09B7C}">
+  <dimension ref="A1:J36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="15" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="15">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" ht="15">
+      <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" ht="15">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="7">
+        <v>44516</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" ht="15">
+      <c r="A5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" ht="15">
+      <c r="A6" s="5"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" ht="15">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" ht="15">
+      <c r="A8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="42"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" ht="15">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" ht="15">
+      <c r="A10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" ht="15">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" ht="15">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" ht="15">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" ht="15">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" ht="15">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" ht="15">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="19"/>
+    </row>
+    <row r="17" spans="1:10" ht="90" customHeight="1">
+      <c r="A17" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="95.1" customHeight="1">
+      <c r="A18" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="G18" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="95.1" customHeight="1">
+      <c r="A19" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="F19" s="16"/>
+      <c r="G19" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="116.25" customHeight="1">
+      <c r="A20" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>269</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="F20" s="16"/>
+      <c r="G20" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
+    </row>
+    <row r="21" spans="1:10" ht="95.1" customHeight="1">
+      <c r="A21" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="F21" s="16"/>
+      <c r="G21" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="I21" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" s="22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="95.1" customHeight="1">
+      <c r="A22" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="F22" s="16"/>
+      <c r="G22" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="26"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="22"/>
+    </row>
+    <row r="23" spans="1:10" ht="95.1" customHeight="1">
+      <c r="A23" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="F23" s="16"/>
+      <c r="G23" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="17"/>
+      <c r="I23" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" s="23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="95.1" customHeight="1">
+      <c r="A24" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="F24" s="16"/>
+      <c r="G24" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I24" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" s="23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="95.1" customHeight="1">
+      <c r="A25" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="F25" s="16"/>
+      <c r="G25" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="1:10" ht="15">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="1:10" ht="15">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="1:10" ht="15">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" ht="30">
+      <c r="A30" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="1:10" ht="15">
+      <c r="A31" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="13">
+        <v>44340</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:10" ht="15">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="1:10" ht="15">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="1:10" ht="15">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="1:10" ht="15">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+    </row>
+    <row r="36" spans="1:10" ht="15">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B8:C8"/>
+  </mergeCells>
+  <phoneticPr fontId="15" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="J18" r:id="rId1" xr:uid="{20B11417-CEE1-4815-91B1-D761BFC44873}"/>
+    <hyperlink ref="J23" r:id="rId2" xr:uid="{671FAD47-1759-48AE-9F75-02F535F2E89D}"/>
+    <hyperlink ref="J24" r:id="rId3" xr:uid="{6F2AEFE0-21FF-4C88-B05F-1BEBE3B6ADA0}"/>
+    <hyperlink ref="J25" r:id="rId4" xr:uid="{8001CA2C-D4AB-4F88-9A5C-A6A29D514F0F}"/>
+    <hyperlink ref="J19" r:id="rId5" xr:uid="{95B82F94-0E53-473B-A887-8C8C22FABA32}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>